--- a/微信自动发送数据/万柏林/excelfiles/太原市六城区标站空气质量日报排名插入.xlsx
+++ b/微信自动发送数据/万柏林/excelfiles/太原市六城区标站空气质量日报排名插入.xlsx
@@ -43,7 +43,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF7E00"/>
       </patternFill>
     </fill>
   </fills>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,13 +486,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="10" min="10" width="15"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1">
+    <row customHeight="1" ht="20" r="1">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>2020年11月3日全市所有标站AQI排名情况</t>
+          <t>2020年3月20日9时区域AQI排名</t>
         </is>
       </c>
       <c r="B1" s="9" t="n"/>
@@ -504,6 +505,7 @@
       <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr">
@@ -513,7 +515,7 @@
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>点位</t>
+          <t>点位名称</t>
         </is>
       </c>
       <c r="C2" s="10" t="inlineStr">
@@ -533,7 +535,7 @@
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
-          <t>O3-8h</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="G2" s="10" t="inlineStr">
@@ -554,6 +556,11 @@
       <c r="J2" s="10" t="inlineStr">
         <is>
           <t>首要污染物</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>类别</t>
         </is>
       </c>
     </row>
@@ -567,65 +574,75 @@
         </is>
       </c>
       <c r="C3" s="11" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="11" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J3" s="11" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K3" s="11" t="inlineStr">
+        <is>
+          <t>二级</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>西山</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>47</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>56</v>
-      </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>PM10</t>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>尖草坪</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>138</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>二级</t>
         </is>
       </c>
     </row>
@@ -635,33 +652,38 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>南寨</t>
+          <t>西山</t>
         </is>
       </c>
       <c r="C5" s="11" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J5" s="11" t="inlineStr">
         <is>
           <t>PM10</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="inlineStr">
+        <is>
+          <t>二级</t>
         </is>
       </c>
     </row>
@@ -671,33 +693,38 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>老军营</t>
+          <t>小店</t>
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H6" s="11" t="n">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="J6" s="11" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K6" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
@@ -707,105 +734,120 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>金胜</t>
+          <t>南寨</t>
         </is>
       </c>
       <c r="C7" s="11" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>0.7</v>
       </c>
       <c r="F7" s="11" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G7" s="11" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11" t="n">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>晋源</t>
         </is>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>56</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <v>49</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>93</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>PM10</t>
+      <c r="C8" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" s="12" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K8" s="12" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>尖草坪</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>85</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>73</v>
-      </c>
-      <c r="J9" s="11" t="inlineStr">
-        <is>
-          <t>NO2</t>
+      <c r="A9" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>金胜</t>
+        </is>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>59</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>160</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="J9" s="12" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K9" s="12" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
@@ -819,29 +861,34 @@
         </is>
       </c>
       <c r="C10" s="11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="11" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G10" s="11" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H10" s="11" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="I10" s="11" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K10" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
@@ -851,111 +898,126 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>坞城</t>
+          <t>巨轮</t>
         </is>
       </c>
       <c r="C11" s="11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11" s="11" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H11" s="11" t="n">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="I11" s="11" t="n">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
           <t>PM10</t>
+        </is>
+      </c>
+      <c r="K11" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>小店</t>
+          <t>坞城</t>
         </is>
       </c>
       <c r="C12" s="11" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F12" s="11" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H12" s="11" t="n">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J12" s="11" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K12" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>巨轮</t>
+          <t>迎泽</t>
         </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F13" s="11" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="I13" s="11" t="n">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="J13" s="11" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="K13" s="11" t="inlineStr">
+        <is>
+          <t>三级</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
